--- a/Данные/Туриндустрия.xlsx
+++ b/Данные/Туриндустрия.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -18,9 +18,60 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Число организаций</t>
+  </si>
+  <si>
+    <t>Число прибыльных организаций</t>
+  </si>
+  <si>
+    <t>Число убыточных организаций</t>
+  </si>
+  <si>
+    <t>Выручка (без НДС, акцизов и аналогичных обязательных платежей)</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
+  </si>
+  <si>
+    <t>Убыток</t>
+  </si>
+  <si>
+    <t>гостиницы</t>
+  </si>
+  <si>
+    <t>санатории</t>
+  </si>
+  <si>
+    <t>дома отдыха</t>
+  </si>
+  <si>
+    <t>туристские базы</t>
+  </si>
+  <si>
+    <t>мотели</t>
+  </si>
+  <si>
+    <t>кемпинги</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Ввод в действие объектов туризма:</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +79,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,14 +136,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="9">
+    <cellStyle name="Normal" xfId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 2 2" xfId="1"/>
+    <cellStyle name="Обычный 3" xfId="4"/>
+    <cellStyle name="Обычный 4" xfId="6"/>
+    <cellStyle name="Финансовый 2" xfId="3"/>
+    <cellStyle name="Финансовый 3" xfId="5"/>
+    <cellStyle name="Финансовый 4" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +200,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +240,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +280,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +462,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9">
+        <v>2014</v>
+      </c>
+      <c r="C1" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D1" s="9">
+        <v>2016</v>
+      </c>
+      <c r="E1" s="9">
+        <v>2017</v>
+      </c>
+      <c r="F1" s="9">
+        <v>2018</v>
+      </c>
+      <c r="G1" s="9">
+        <v>2019</v>
+      </c>
+      <c r="H1" s="9">
+        <v>2020</v>
+      </c>
+      <c r="I1" s="8">
+        <v>2021</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>72744</v>
+      </c>
+      <c r="C2" s="3">
+        <v>85115</v>
+      </c>
+      <c r="D2" s="3">
+        <v>86968</v>
+      </c>
+      <c r="E2" s="3">
+        <v>114779</v>
+      </c>
+      <c r="F2" s="3">
+        <v>113009</v>
+      </c>
+      <c r="G2" s="3">
+        <v>111874</v>
+      </c>
+      <c r="H2" s="3">
+        <v>113847</v>
+      </c>
+      <c r="I2" s="3">
+        <v>114041</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>53390</v>
+      </c>
+      <c r="C3" s="3">
+        <v>62592</v>
+      </c>
+      <c r="D3" s="3">
+        <v>64821</v>
+      </c>
+      <c r="E3" s="3">
+        <v>87169</v>
+      </c>
+      <c r="F3" s="3">
+        <v>85870</v>
+      </c>
+      <c r="G3" s="3">
+        <v>85062</v>
+      </c>
+      <c r="H3" s="3">
+        <v>76320</v>
+      </c>
+      <c r="I3" s="3">
+        <v>86096</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>19354</v>
+      </c>
+      <c r="C4" s="3">
+        <v>22523</v>
+      </c>
+      <c r="D4" s="3">
+        <v>22147</v>
+      </c>
+      <c r="E4" s="3">
+        <v>27610</v>
+      </c>
+      <c r="F4" s="3">
+        <v>27139</v>
+      </c>
+      <c r="G4" s="3">
+        <v>26812</v>
+      </c>
+      <c r="H4" s="3">
+        <v>37527</v>
+      </c>
+      <c r="I4" s="3">
+        <v>27945</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2531.9</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2815.2941780000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3103.3950140000002</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5584.2510160000002</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6207.3412259999996</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4879.3098970000001</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5212.3999999999996</v>
+      </c>
+      <c r="I5" s="4">
+        <v>7130.4762909999999</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>224.7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>154.99619799999999</v>
+      </c>
+      <c r="D6" s="5">
+        <v>302.63733500000001</v>
+      </c>
+      <c r="E6" s="5">
+        <v>380.17403999999999</v>
+      </c>
+      <c r="F6" s="5">
+        <v>371.373132</v>
+      </c>
+      <c r="G6" s="5">
+        <v>353.58021400000001</v>
+      </c>
+      <c r="H6" s="5">
+        <v>254.6</v>
+      </c>
+      <c r="I6" s="5">
+        <v>482.976091</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>211.7</v>
+      </c>
+      <c r="C7" s="5">
+        <v>325.38355300000001</v>
+      </c>
+      <c r="D7" s="5">
+        <v>141.65635</v>
+      </c>
+      <c r="E7" s="5">
+        <v>208.78389100000001</v>
+      </c>
+      <c r="F7" s="5">
+        <v>168.46860699999999</v>
+      </c>
+      <c r="G7" s="5">
+        <v>180.12463700000001</v>
+      </c>
+      <c r="H7" s="5">
+        <v>471.4</v>
+      </c>
+      <c r="I7" s="5">
+        <v>233.149531</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10328</v>
+      </c>
+      <c r="C9" s="3">
+        <v>11976</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10822</v>
+      </c>
+      <c r="E9" s="3">
+        <v>12460</v>
+      </c>
+      <c r="F9" s="3">
+        <v>12191</v>
+      </c>
+      <c r="G9" s="3">
+        <v>14489</v>
+      </c>
+      <c r="H9" s="3">
+        <v>11711</v>
+      </c>
+      <c r="I9" s="3">
+        <v>13245</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1378</v>
+      </c>
+      <c r="C10" s="3">
+        <v>395</v>
+      </c>
+      <c r="D10" s="3">
+        <v>356</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1287</v>
+      </c>
+      <c r="F10" s="3">
+        <v>664</v>
+      </c>
+      <c r="G10" s="3">
+        <v>840</v>
+      </c>
+      <c r="H10" s="3">
+        <v>188</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1482</v>
+      </c>
+      <c r="C11" s="3">
+        <v>709</v>
+      </c>
+      <c r="D11" s="3">
+        <v>730</v>
+      </c>
+      <c r="E11" s="3">
+        <v>850</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2794</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1415</v>
+      </c>
+      <c r="H11" s="3">
+        <v>847</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1522</v>
+      </c>
+      <c r="C12" s="3">
+        <v>358</v>
+      </c>
+      <c r="D12" s="3">
+        <v>371</v>
+      </c>
+      <c r="E12" s="3">
+        <v>817</v>
+      </c>
+      <c r="F12" s="3">
+        <v>417</v>
+      </c>
+      <c r="G12" s="3">
+        <v>580</v>
+      </c>
+      <c r="H12" s="3">
+        <v>804</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>516</v>
+      </c>
+      <c r="C13" s="6">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6">
+        <v>149</v>
+      </c>
+      <c r="E13" s="6">
+        <v>99</v>
+      </c>
+      <c r="F13" s="6">
+        <v>177</v>
+      </c>
+      <c r="G13" s="6">
+        <v>67</v>
+      </c>
+      <c r="H13" s="6">
+        <v>404</v>
+      </c>
+      <c r="I13" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6">
+        <v>86</v>
+      </c>
+      <c r="C14" s="6">
+        <v>28</v>
+      </c>
+      <c r="D14" s="6">
+        <v>60</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>105</v>
+      </c>
+      <c r="G14" s="6">
+        <v>426</v>
+      </c>
+      <c r="H14" s="6">
+        <v>107</v>
+      </c>
+      <c r="I14" s="6">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Данные/Туриндустрия.xlsx
+++ b/Данные/Туриндустрия.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Число организаций</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Число убыточных организаций</t>
   </si>
   <si>
-    <t>Выручка (без НДС, акцизов и аналогичных обязательных платежей)</t>
-  </si>
-  <si>
     <t>Прибыль</t>
   </si>
   <si>
@@ -61,6 +58,12 @@
   </si>
   <si>
     <t>Ввод в действие объектов туризма:</t>
+  </si>
+  <si>
+    <t>Выручка (без НДС, акцизов и т.д.)</t>
+  </si>
+  <si>
+    <t>Сальдированный финансовый результат</t>
   </si>
 </sst>
 </file>
@@ -71,12 +74,20 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,55 +147,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="14">
     <cellStyle name="Normal" xfId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Обычный 2 2" xfId="1"/>
+    <cellStyle name="Обычный 2 3" xfId="9"/>
     <cellStyle name="Обычный 3" xfId="4"/>
+    <cellStyle name="Обычный 3 2" xfId="11"/>
     <cellStyle name="Обычный 4" xfId="6"/>
+    <cellStyle name="Обычный 4 2" xfId="12"/>
     <cellStyle name="Финансовый 2" xfId="3"/>
+    <cellStyle name="Финансовый 2 2" xfId="10"/>
     <cellStyle name="Финансовый 3" xfId="5"/>
     <cellStyle name="Финансовый 4" xfId="7"/>
+    <cellStyle name="Финансовый 4 2" xfId="13"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +505,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="9">
         <v>2014</v>
@@ -612,9 +639,9 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <v>2531.9</v>
@@ -648,7 +675,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5">
         <v>224.7</v>
@@ -682,7 +709,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5">
         <v>211.7</v>
@@ -715,51 +742,50 @@
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10">
         <v>13</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="3"/>
+      <c r="C8" s="10">
+        <v>-170.38735500000001</v>
+      </c>
+      <c r="D8" s="10">
+        <v>160.980985</v>
+      </c>
+      <c r="E8" s="10">
+        <v>171.39014900000001</v>
+      </c>
+      <c r="F8" s="10">
+        <v>202.90452500000001</v>
+      </c>
+      <c r="G8" s="10">
+        <v>173.45557700000001</v>
+      </c>
+      <c r="H8" s="10">
+        <v>-216.79999999999998</v>
+      </c>
+      <c r="I8" s="10">
+        <v>249.82656</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>10328</v>
-      </c>
-      <c r="C9" s="3">
-        <v>11976</v>
-      </c>
-      <c r="D9" s="3">
-        <v>10822</v>
-      </c>
-      <c r="E9" s="3">
-        <v>12460</v>
-      </c>
-      <c r="F9" s="3">
-        <v>12191</v>
-      </c>
-      <c r="G9" s="3">
-        <v>14489</v>
-      </c>
-      <c r="H9" s="3">
-        <v>11711</v>
-      </c>
-      <c r="I9" s="3">
-        <v>13245</v>
-      </c>
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -768,146 +794,175 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3">
-        <v>1378</v>
+        <v>10328</v>
       </c>
       <c r="C10" s="3">
-        <v>395</v>
+        <v>11976</v>
       </c>
       <c r="D10" s="3">
-        <v>356</v>
+        <v>10822</v>
       </c>
       <c r="E10" s="3">
-        <v>1287</v>
+        <v>12460</v>
       </c>
       <c r="F10" s="3">
-        <v>664</v>
+        <v>12191</v>
       </c>
       <c r="G10" s="3">
-        <v>840</v>
+        <v>14489</v>
       </c>
       <c r="H10" s="3">
-        <v>188</v>
+        <v>11711</v>
       </c>
       <c r="I10" s="3">
-        <v>1714</v>
+        <v>13245</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1378</v>
+      </c>
+      <c r="C11" s="3">
+        <v>395</v>
+      </c>
+      <c r="D11" s="3">
+        <v>356</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1287</v>
+      </c>
+      <c r="F11" s="3">
+        <v>664</v>
+      </c>
+      <c r="G11" s="3">
+        <v>840</v>
+      </c>
+      <c r="H11" s="3">
+        <v>188</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1482</v>
+      </c>
+      <c r="C12" s="3">
+        <v>709</v>
+      </c>
+      <c r="D12" s="3">
+        <v>730</v>
+      </c>
+      <c r="E12" s="3">
+        <v>850</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2794</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1415</v>
+      </c>
+      <c r="H12" s="3">
+        <v>847</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
-        <v>1482</v>
-      </c>
-      <c r="C11" s="3">
-        <v>709</v>
-      </c>
-      <c r="D11" s="3">
-        <v>730</v>
-      </c>
-      <c r="E11" s="3">
-        <v>850</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2794</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1415</v>
-      </c>
-      <c r="H11" s="3">
-        <v>847</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="B13" s="3">
         <v>1522</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <v>358</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>371</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <v>817</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F13" s="3">
         <v>417</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G13" s="3">
         <v>580</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H13" s="3">
         <v>804</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="3">
         <v>1019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>516</v>
-      </c>
-      <c r="C13" s="6">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6">
-        <v>149</v>
-      </c>
-      <c r="E13" s="6">
-        <v>99</v>
-      </c>
-      <c r="F13" s="6">
-        <v>177</v>
-      </c>
-      <c r="G13" s="6">
-        <v>67</v>
-      </c>
-      <c r="H13" s="6">
-        <v>404</v>
-      </c>
-      <c r="I13" s="6">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" s="6">
+        <v>516</v>
+      </c>
+      <c r="C14" s="6">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6">
+        <v>149</v>
+      </c>
+      <c r="E14" s="6">
+        <v>99</v>
+      </c>
+      <c r="F14" s="6">
+        <v>177</v>
+      </c>
+      <c r="G14" s="6">
+        <v>67</v>
+      </c>
+      <c r="H14" s="6">
+        <v>404</v>
+      </c>
+      <c r="I14" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6">
         <v>86</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>28</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <v>60</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <v>3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <v>105</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G15" s="6">
         <v>426</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H15" s="6">
         <v>107</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I15" s="6">
         <v>32</v>
       </c>
     </row>

--- a/Данные/Туриндустрия.xlsx
+++ b/Данные/Туриндустрия.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
